--- a/exceltemplate/测试.xlsx
+++ b/exceltemplate/测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="16428" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="用例集合" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="101">
   <si>
     <t>用例总数</t>
   </si>
@@ -400,88 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -497,9 +415,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,6 +446,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,8 +474,55 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,6 +573,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -585,7 +645,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +699,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,73 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,66 +751,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -758,6 +758,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -772,50 +790,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,6 +819,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -858,6 +847,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -866,10 +866,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -878,16 +878,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
@@ -899,116 +899,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="8">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="7">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1108,9 +1108,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1432,13 +1429,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9.25" style="28" customWidth="1"/>
     <col min="2" max="2" width="16.6296296296296" style="28" customWidth="1"/>
@@ -1586,446 +1583,6 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" customFormat="1" spans="1:12">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:12">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:12">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:12">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:12">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:12">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:12">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" customFormat="1" spans="1:12">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" customFormat="1" spans="1:12">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" customFormat="1" spans="1:12">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:12">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:12">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:12">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:12">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:12">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:12">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" customFormat="1" spans="1:12">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" customFormat="1" spans="1:12">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:12">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:12">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" customFormat="1" spans="7:8">
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
@@ -2033,7 +1590,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1 F2">
-      <formula1>$M$8:$M$9</formula1>
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2045,12 +1602,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD26"/>
+  <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27:A1048576"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.8" customHeight="1"/>
@@ -34207,68 +33764,6 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" customFormat="1" ht="14.4" customHeight="1" spans="1:21">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="2"/>
-      <c r="K25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" customFormat="1" ht="14.4" customHeight="1" spans="1:21">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="2"/>
-      <c r="K26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="1496">
     <mergeCell ref="A2:A24"/>
@@ -35781,8 +35276,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
     </sheetView>
